--- a/pred_ohlcv/54_21/2019-11-13 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 LBA ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>67946.70641367519</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>67946.70641367519</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>81746.70641367519</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>179282.3169136752</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>179282.3169136752</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>179403.3169136752</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>129403.3169136752</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>129424.3169136752</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>127849.2491136752</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>249449.2491136752</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>166342.9044136752</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>138581.5957136752</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>267742.0302136752</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>311570.0542136752</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>333170.0542136752</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>331707.5043136752</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>331707.5043136752</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>331707.5043136752</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>428709.3325741495</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>433904.3736136752</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>433904.3736136752</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>442691.3737136752</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>454458.2325136752</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>455815.6778136753</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>448340.2284136753</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>448280.2284136753</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>448300.2284136753</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>448280.2284136753</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>414515.8329136753</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>427181.7652136753</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>417181.7652136753</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>397181.7652136753</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>397181.7652136753</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>384515.8329136753</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>402515.8329136753</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>302715.8329136753</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>302715.8329136753</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>365602.8561136753</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>365602.8561136753</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>388981.9084136753</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>326094.8852136753</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>326094.8852136753</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>326307.5852136753</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>326913.7450136753</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>335017.2556136753</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>289912.3869136753</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>339712.3869136753</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>359712.3869136753</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1304910.14102754</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1095688.57372754</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1095688.57372754</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>903540.2014275403</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>798512.7009275403</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>964981.4276275403</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>964981.4276275403</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1002919.63632754</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1002919.63632754</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>998708.2997275402</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>969514.3030275402</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>983169.3662275402</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1094137.55952754</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1072933.68992754</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1034708.76242754</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1008283.28862754</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>596471.36632754</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>619797.87372754</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-13 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 LBA ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>67946.70641367519</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>67946.70641367519</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>81746.70641367519</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>137746.7064136752</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>187429.6182136752</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>187429.6182136752</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>181648.9561136752</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>179282.3169136752</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>138581.5957136752</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>267742.0302136752</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>311570.0542136752</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>333170.0542136752</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>331707.5043136752</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>331707.5043136752</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>331707.5043136752</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>428709.3325741495</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>433904.3736136752</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>433904.3736136752</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>442691.3737136752</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>454458.2325136752</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>455815.6778136753</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>475765.6778136753</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>448340.2284136753</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>448280.2284136753</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>448300.2284136753</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>448280.2284136753</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>414515.8329136753</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>427181.7652136753</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>417181.7652136753</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>397181.7652136753</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>397181.7652136753</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>384515.8329136753</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>402515.8329136753</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>352715.8329136753</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>302715.8329136753</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>302715.8329136753</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>365602.8561136753</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>365602.8561136753</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>388981.9084136753</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>326094.8852136753</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>326094.8852136753</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>326307.5852136753</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>326913.7450136753</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>335017.2556136753</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>289912.3869136753</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>339712.3869136753</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>359712.3869136753</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1200887.49062754</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1304910.14102754</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1095688.57372754</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1095688.57372754</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>903540.2014275403</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>798512.7009275403</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>964981.4276275403</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1002919.63632754</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1002919.63632754</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>998708.2997275402</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>969514.3030275402</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>983169.3662275402</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1072933.68992754</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1034708.76242754</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1008283.28862754</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>596471.36632754</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>619797.87372754</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
